--- a/Code/Results/Cases/Case_7_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_38/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.58721009560227</v>
+        <v>12.3290657086208</v>
       </c>
       <c r="C2">
-        <v>11.01678865243509</v>
+        <v>5.503921719447531</v>
       </c>
       <c r="D2">
-        <v>4.991354165725732</v>
+        <v>5.288722551627259</v>
       </c>
       <c r="E2">
-        <v>5.271346513172512</v>
+        <v>5.328957161839162</v>
       </c>
       <c r="F2">
-        <v>65.73559125880718</v>
+        <v>67.70880716678698</v>
       </c>
       <c r="G2">
-        <v>2.127263818871314</v>
+        <v>2.171710339172665</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.793035867248692</v>
+        <v>7.219942137067827</v>
       </c>
       <c r="K2">
-        <v>15.03507944276505</v>
+        <v>10.41198559059299</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.12538884165513</v>
+        <v>9.843966583823093</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.46974149096489</v>
+        <v>11.69157887015402</v>
       </c>
       <c r="C3">
-        <v>10.17808044628911</v>
+        <v>5.073556947816265</v>
       </c>
       <c r="D3">
-        <v>4.705255185338442</v>
+        <v>5.028452935853139</v>
       </c>
       <c r="E3">
-        <v>5.332711742219137</v>
+        <v>5.357620391032826</v>
       </c>
       <c r="F3">
-        <v>62.48728782697189</v>
+        <v>64.67426410847401</v>
       </c>
       <c r="G3">
-        <v>2.14069554299649</v>
+        <v>2.182526428023061</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.728890172496889</v>
+        <v>7.134177861733781</v>
       </c>
       <c r="K3">
-        <v>13.93676845811787</v>
+        <v>9.979622654930946</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.71992780658433</v>
+        <v>9.680441286006822</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.78584887261924</v>
+        <v>11.29776485003023</v>
       </c>
       <c r="C4">
-        <v>9.643581580645497</v>
+        <v>4.806233489750239</v>
       </c>
       <c r="D4">
-        <v>4.524219277087999</v>
+        <v>4.863611002079884</v>
       </c>
       <c r="E4">
-        <v>5.373523349737763</v>
+        <v>5.380602497995288</v>
       </c>
       <c r="F4">
-        <v>60.45655865139942</v>
+        <v>62.77052963263991</v>
       </c>
       <c r="G4">
-        <v>2.149082255744247</v>
+        <v>2.189309069933678</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.691895662631874</v>
+        <v>7.083536786609887</v>
       </c>
       <c r="K4">
-        <v>13.4045039439508</v>
+        <v>9.718669378249247</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.48014572170643</v>
+        <v>9.59035618242363</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.50395867906607</v>
+        <v>11.13688265365856</v>
       </c>
       <c r="C5">
-        <v>9.420745682169237</v>
+        <v>4.728808272341339</v>
       </c>
       <c r="D5">
-        <v>4.449078121772923</v>
+        <v>4.795158883052799</v>
       </c>
       <c r="E5">
-        <v>5.390928525471481</v>
+        <v>5.391267958550936</v>
       </c>
       <c r="F5">
-        <v>59.62027311484518</v>
+        <v>61.98506430999397</v>
       </c>
       <c r="G5">
-        <v>2.152539489495936</v>
+        <v>2.192111338675353</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.677394314733112</v>
+        <v>7.063395591613754</v>
       </c>
       <c r="K5">
-        <v>13.18637672333155</v>
+        <v>9.613592465791626</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.38478294826472</v>
+        <v>9.556193870248952</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.45696491288368</v>
+        <v>11.11015086406534</v>
       </c>
       <c r="C6">
-        <v>9.383437924132283</v>
+        <v>4.715984811192754</v>
       </c>
       <c r="D6">
-        <v>4.436518121193441</v>
+        <v>4.783715097743904</v>
       </c>
       <c r="E6">
-        <v>5.393865025826538</v>
+        <v>5.39311595558654</v>
       </c>
       <c r="F6">
-        <v>59.48089444563355</v>
+        <v>61.85407125581454</v>
       </c>
       <c r="G6">
-        <v>2.153116074094071</v>
+        <v>2.192579040736689</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.6750203015235</v>
+        <v>7.060080743861271</v>
       </c>
       <c r="K6">
-        <v>13.15008961043554</v>
+        <v>9.596224861809944</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.36909142844132</v>
+        <v>9.550673676319507</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.78205984684157</v>
+        <v>11.29559645720341</v>
       </c>
       <c r="C7">
-        <v>9.640596801043435</v>
+        <v>4.805187177829212</v>
       </c>
       <c r="D7">
-        <v>4.523211448431518</v>
+        <v>4.862693016055198</v>
       </c>
       <c r="E7">
-        <v>5.373754964595147</v>
+        <v>5.380741141012263</v>
       </c>
       <c r="F7">
-        <v>60.44531501135098</v>
+        <v>62.75997499134927</v>
       </c>
       <c r="G7">
-        <v>2.149128715331018</v>
+        <v>2.189346703866355</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.691697801824319</v>
+        <v>7.083263164852776</v>
       </c>
       <c r="K7">
-        <v>13.40156686971586</v>
+        <v>9.717246978103189</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.47885004511491</v>
+        <v>9.589885205854307</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.18804210667395</v>
+        <v>12.1098654308456</v>
       </c>
       <c r="C8">
-        <v>10.73157679835391</v>
+        <v>5.357500786997931</v>
       </c>
       <c r="D8">
-        <v>4.893807595019616</v>
+        <v>5.20001736970515</v>
       </c>
       <c r="E8">
-        <v>5.29184617303464</v>
+        <v>5.337690075572013</v>
       </c>
       <c r="F8">
-        <v>64.62326820957696</v>
+        <v>66.67116985870869</v>
       </c>
       <c r="G8">
-        <v>2.131868946175044</v>
+        <v>2.175412048895577</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.770405194714933</v>
+        <v>7.18994409537827</v>
       </c>
       <c r="K8">
-        <v>14.6532914396839</v>
+        <v>10.26203982940194</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.9837049346472</v>
+        <v>9.785414124215379</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.19069796001317</v>
+        <v>13.68103219724447</v>
       </c>
       <c r="C9">
-        <v>12.72295601947282</v>
+        <v>6.380613707303665</v>
       </c>
       <c r="D9">
-        <v>5.579391554199882</v>
+        <v>5.822497857869335</v>
       </c>
       <c r="E9">
-        <v>5.156798973674725</v>
+        <v>5.298514707654932</v>
       </c>
       <c r="F9">
-        <v>72.52210278265761</v>
+        <v>74.00423222380051</v>
       </c>
       <c r="G9">
-        <v>2.098901631709087</v>
+        <v>2.149074717815768</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.94507297952484</v>
+        <v>7.415772577200067</v>
       </c>
       <c r="K9">
-        <v>17.30470836978367</v>
+        <v>11.52212314002083</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.11624026057166</v>
+        <v>10.25269260805402</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.29209155138054</v>
+        <v>15.02563943400902</v>
       </c>
       <c r="C10">
-        <v>14.10820493535591</v>
+        <v>7.09214991262741</v>
       </c>
       <c r="D10">
-        <v>6.061058017958309</v>
+        <v>6.257988610986549</v>
       </c>
       <c r="E10">
-        <v>5.074342729297785</v>
+        <v>5.301038260833406</v>
       </c>
       <c r="F10">
-        <v>78.1526713042967</v>
+        <v>79.1762658874643</v>
       </c>
       <c r="G10">
-        <v>2.07484956558355</v>
+        <v>2.130118136155862</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.087927344715975</v>
+        <v>7.592814657307205</v>
       </c>
       <c r="K10">
-        <v>19.13051113987151</v>
+        <v>12.71684897237664</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.48595349781399</v>
+        <v>10.64984136621811</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.22367809414838</v>
+        <v>15.63558745740428</v>
       </c>
       <c r="C11">
-        <v>14.72511334198452</v>
+        <v>7.408530213708481</v>
       </c>
       <c r="D11">
-        <v>6.276386113509028</v>
+        <v>6.451968901245227</v>
       </c>
       <c r="E11">
-        <v>5.040792515154969</v>
+        <v>5.309864678261738</v>
       </c>
       <c r="F11">
-        <v>80.68266184516949</v>
+        <v>81.48309466832984</v>
       </c>
       <c r="G11">
-        <v>2.063845716489196</v>
+        <v>2.121526105420829</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.156637929197587</v>
+        <v>7.676039497789415</v>
       </c>
       <c r="K11">
-        <v>19.9389013825056</v>
+        <v>13.24251440877016</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.09150225741956</v>
+        <v>11.03664147357457</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.57339934141623</v>
+        <v>15.86396344027563</v>
       </c>
       <c r="C12">
-        <v>14.95719080212023</v>
+        <v>7.527426878006814</v>
       </c>
       <c r="D12">
-        <v>6.35748840799337</v>
+        <v>6.52489445335466</v>
       </c>
       <c r="E12">
-        <v>5.028689999117921</v>
+        <v>5.314390225554041</v>
       </c>
       <c r="F12">
-        <v>81.63701638510234</v>
+        <v>82.35027145087098</v>
       </c>
       <c r="G12">
-        <v>2.059659964710937</v>
+        <v>2.118271904481631</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.183249399132062</v>
+        <v>7.70796784888967</v>
       </c>
       <c r="K12">
-        <v>20.24226559198735</v>
+        <v>13.43919892532549</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.31861553684482</v>
+        <v>11.19674453125772</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.49820811499129</v>
+        <v>15.81489099081715</v>
       </c>
       <c r="C13">
-        <v>14.90727021635925</v>
+        <v>7.50185833561078</v>
       </c>
       <c r="D13">
-        <v>6.340039102281965</v>
+        <v>6.509211100261973</v>
       </c>
       <c r="E13">
-        <v>5.031269125341701</v>
+        <v>5.313361625654482</v>
       </c>
       <c r="F13">
-        <v>81.43162745293083</v>
+        <v>82.16378724268939</v>
       </c>
       <c r="G13">
-        <v>2.060562454099507</v>
+        <v>2.11897286943896</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.177490793401812</v>
+        <v>7.701072668741896</v>
       </c>
       <c r="K13">
-        <v>20.17704551374383</v>
+        <v>13.39694167773699</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.26979445383649</v>
+        <v>11.1623490998853</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.25250809687405</v>
+        <v>15.65442703500057</v>
       </c>
       <c r="C14">
-        <v>14.74423481569004</v>
+        <v>7.418329261157647</v>
       </c>
       <c r="D14">
-        <v>6.283066529098654</v>
+        <v>6.457978761558921</v>
       </c>
       <c r="E14">
-        <v>5.039784556401828</v>
+        <v>5.310212811980081</v>
       </c>
       <c r="F14">
-        <v>80.76124558488577</v>
+        <v>81.55456355795174</v>
       </c>
       <c r="G14">
-        <v>2.063501792114736</v>
+        <v>2.121258423719253</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.158815041431065</v>
+        <v>7.678657818085519</v>
       </c>
       <c r="K14">
-        <v>19.96391181065659</v>
+        <v>13.25874215900339</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.11022892562547</v>
+        <v>11.04985208753609</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.10162742646995</v>
+        <v>15.5558056421101</v>
       </c>
       <c r="C15">
-        <v>14.64418363796527</v>
+        <v>7.367051370718686</v>
       </c>
       <c r="D15">
-        <v>6.248115725222226</v>
+        <v>6.426530445220807</v>
       </c>
       <c r="E15">
-        <v>5.045080000372796</v>
+        <v>5.308440600187994</v>
       </c>
       <c r="F15">
-        <v>80.35016483333189</v>
+        <v>81.18057670540882</v>
       </c>
       <c r="G15">
-        <v>2.065299447689762</v>
+        <v>2.122658152576902</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.147454581749899</v>
+        <v>7.664982716196872</v>
       </c>
       <c r="K15">
-        <v>19.83301655571956</v>
+        <v>13.17378789539559</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.01221521886484</v>
+        <v>10.98069073033415</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.23075675689001</v>
+        <v>14.98540406193112</v>
       </c>
       <c r="C16">
-        <v>14.06765222140193</v>
+        <v>7.071338276590504</v>
       </c>
       <c r="D16">
-        <v>6.04691824875005</v>
+        <v>6.245233610013532</v>
       </c>
       <c r="E16">
-        <v>5.076617675434162</v>
+        <v>5.300622570844147</v>
       </c>
       <c r="F16">
-        <v>77.98676220605824</v>
+        <v>79.0246014473684</v>
       </c>
       <c r="G16">
-        <v>2.075566631393378</v>
+        <v>2.130679856430055</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.083516527361492</v>
+        <v>7.587431950967857</v>
       </c>
       <c r="K16">
-        <v>19.07727004930553</v>
+        <v>12.6821524944088</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.4460533133457</v>
+        <v>10.6374806515298</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.69056304355504</v>
+        <v>14.63065650630419</v>
       </c>
       <c r="C17">
-        <v>13.71081956703848</v>
+        <v>6.888150706679792</v>
       </c>
       <c r="D17">
-        <v>5.922589530924863</v>
+        <v>6.132998016358339</v>
       </c>
       <c r="E17">
-        <v>5.097000852348123</v>
+        <v>5.297847578868017</v>
       </c>
       <c r="F17">
-        <v>76.52934541963702</v>
+        <v>77.69033267738745</v>
       </c>
       <c r="G17">
-        <v>2.081842714995136</v>
+        <v>2.135605529871711</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.0452840655247</v>
+        <v>7.540562764905767</v>
       </c>
       <c r="K17">
-        <v>18.60824966197437</v>
+        <v>12.37611255087528</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.09445581821612</v>
+        <v>10.53054345211558</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.37753423464317</v>
+        <v>14.42478793235154</v>
       </c>
       <c r="C18">
-        <v>13.50430577799067</v>
+        <v>6.782089177665876</v>
       </c>
       <c r="D18">
-        <v>5.850715100315767</v>
+        <v>6.068050216713622</v>
       </c>
       <c r="E18">
-        <v>5.109095145675848</v>
+        <v>5.296969163793765</v>
       </c>
       <c r="F18">
-        <v>75.68805892161252</v>
+        <v>76.91854751972413</v>
       </c>
       <c r="G18">
-        <v>2.085447352447696</v>
+        <v>2.138441945380764</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.023640525962382</v>
+        <v>7.513855971712593</v>
       </c>
       <c r="K18">
-        <v>18.33636422314346</v>
+        <v>12.19839633986957</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.89055285481419</v>
+        <v>10.47019492588996</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.2711366537789</v>
+        <v>14.35476579441813</v>
       </c>
       <c r="C19">
-        <v>13.43415485412509</v>
+        <v>6.746054963497936</v>
       </c>
       <c r="D19">
-        <v>5.826314285270141</v>
+        <v>6.045990808303589</v>
       </c>
       <c r="E19">
-        <v>5.113252773181445</v>
+        <v>5.296792693593113</v>
       </c>
       <c r="F19">
-        <v>75.4026749807648</v>
+        <v>76.6564825509556</v>
       </c>
       <c r="G19">
-        <v>2.086667201726017</v>
+        <v>2.139403018377635</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.016370382057957</v>
+        <v>7.504855911072942</v>
       </c>
       <c r="K19">
-        <v>18.24393281331198</v>
+        <v>12.137929037134</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.82121825997217</v>
+        <v>10.44995923615706</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.74830509410588</v>
+        <v>14.66860793906496</v>
       </c>
       <c r="C20">
-        <v>13.74893429134215</v>
+        <v>6.907722516300044</v>
       </c>
       <c r="D20">
-        <v>5.935861492617761</v>
+        <v>6.144985927767632</v>
       </c>
       <c r="E20">
-        <v>5.094792469681076</v>
+        <v>5.29806814909646</v>
       </c>
       <c r="F20">
-        <v>76.68479736244682</v>
+        <v>77.83281672519217</v>
       </c>
       <c r="G20">
-        <v>2.081175219509142</v>
+        <v>2.135080877023713</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.049317708811972</v>
+        <v>7.545525903027086</v>
       </c>
       <c r="K20">
-        <v>18.65839391317243</v>
+        <v>12.4088646557596</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.13205495336921</v>
+        <v>10.54180672923897</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.32475488610326</v>
+        <v>15.70162813904297</v>
       </c>
       <c r="C21">
-        <v>14.79216052740448</v>
+        <v>7.442887233291416</v>
       </c>
       <c r="D21">
-        <v>6.299811671974114</v>
+        <v>6.473040781154259</v>
       </c>
       <c r="E21">
-        <v>5.03726673421929</v>
+        <v>5.311104925418212</v>
       </c>
       <c r="F21">
-        <v>80.95824542392731</v>
+        <v>81.73367751473398</v>
       </c>
       <c r="G21">
-        <v>2.062639035392444</v>
+        <v>2.120587160935781</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.164283988231669</v>
+        <v>7.685230161571136</v>
       </c>
       <c r="K21">
-        <v>20.02658529881107</v>
+        <v>13.29939749302676</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.15715388153412</v>
+        <v>11.08294774546012</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.33755448653842</v>
+        <v>16.36172911847173</v>
       </c>
       <c r="C22">
-        <v>15.46526465413129</v>
+        <v>7.78742794225115</v>
       </c>
       <c r="D22">
-        <v>6.535189438761914</v>
+        <v>6.684388953205735</v>
       </c>
       <c r="E22">
-        <v>5.003200030301816</v>
+        <v>5.326562647174882</v>
       </c>
       <c r="F22">
-        <v>83.73022940480526</v>
+        <v>84.24621286937415</v>
       </c>
       <c r="G22">
-        <v>2.050408919566941</v>
+        <v>2.111108390152399</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.242907205659297</v>
+        <v>7.778957750540279</v>
       </c>
       <c r="K22">
-        <v>20.90497498571859</v>
+        <v>13.86768387718356</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.81451484125196</v>
+        <v>11.5454407821166</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.79843198456907</v>
+        <v>16.01072996895504</v>
       </c>
       <c r="C23">
-        <v>15.10667025773935</v>
+        <v>7.603965335014697</v>
       </c>
       <c r="D23">
-        <v>6.409749780770879</v>
+        <v>6.571844029264954</v>
       </c>
       <c r="E23">
-        <v>5.021046739927872</v>
+        <v>5.317650136274503</v>
       </c>
       <c r="F23">
-        <v>82.25234084647046</v>
+        <v>82.90848278969956</v>
       </c>
       <c r="G23">
-        <v>2.056950663405196</v>
+        <v>2.116169832139706</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.200604115588252</v>
+        <v>7.728701813682242</v>
       </c>
       <c r="K23">
-        <v>20.4374438352765</v>
+        <v>13.56556560395374</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.46469905197843</v>
+        <v>11.29959353879189</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.72220762139915</v>
+        <v>14.65145608779462</v>
       </c>
       <c r="C24">
-        <v>13.73170690619905</v>
+        <v>6.898876430589768</v>
       </c>
       <c r="D24">
-        <v>5.929862480470846</v>
+        <v>6.139567512236909</v>
       </c>
       <c r="E24">
-        <v>5.095789711571523</v>
+        <v>5.297966202017543</v>
       </c>
       <c r="F24">
-        <v>76.61452818132112</v>
+        <v>77.76841433112112</v>
       </c>
       <c r="G24">
-        <v>2.081477004609361</v>
+        <v>2.135318057933267</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.047493053710348</v>
+        <v>7.543281326010151</v>
       </c>
       <c r="K24">
-        <v>18.63573070396395</v>
+        <v>12.39406295554</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.11506190551081</v>
+        <v>10.53671108322794</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.39271583904575</v>
+        <v>13.25947290871196</v>
       </c>
       <c r="C25">
-        <v>12.19895577804382</v>
+        <v>6.111296417957325</v>
       </c>
       <c r="D25">
-        <v>5.398068473350238</v>
+        <v>5.658109550212523</v>
       </c>
       <c r="E25">
-        <v>5.190484871921075</v>
+        <v>5.303898049240709</v>
       </c>
       <c r="F25">
-        <v>70.41684164044108</v>
+        <v>72.05807620291102</v>
       </c>
       <c r="G25">
-        <v>2.107760867300092</v>
+        <v>2.156114050427609</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.895440711446716</v>
+        <v>7.352805778141677</v>
       </c>
       <c r="K25">
-        <v>16.61017247181255</v>
+        <v>11.06522321792315</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.75057485476124</v>
+        <v>10.11702872233651</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.3290657086208</v>
+        <v>12.08091338010523</v>
       </c>
       <c r="C2">
-        <v>5.503921719447531</v>
+        <v>7.58230508436884</v>
       </c>
       <c r="D2">
-        <v>5.288722551627259</v>
+        <v>5.328815307478957</v>
       </c>
       <c r="E2">
-        <v>5.328957161839162</v>
+        <v>8.81389285743438</v>
       </c>
       <c r="F2">
-        <v>67.70880716678698</v>
+        <v>29.18952677251983</v>
       </c>
       <c r="G2">
-        <v>2.171710339172665</v>
+        <v>36.59523312975598</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.982477597380834</v>
       </c>
       <c r="J2">
-        <v>7.219942137067827</v>
+        <v>12.33414890823789</v>
       </c>
       <c r="K2">
-        <v>10.41198559059299</v>
+        <v>19.02025611820661</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.292476758567868</v>
       </c>
       <c r="M2">
-        <v>9.843966583823093</v>
+        <v>11.09054836359117</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>11.13412280711836</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.69157887015402</v>
+        <v>11.30359592552474</v>
       </c>
       <c r="C3">
-        <v>5.073556947816265</v>
+        <v>7.081930324509296</v>
       </c>
       <c r="D3">
-        <v>5.028452935853139</v>
+        <v>5.061832575882436</v>
       </c>
       <c r="E3">
-        <v>5.357620391032826</v>
+        <v>8.438617776810956</v>
       </c>
       <c r="F3">
-        <v>64.67426410847401</v>
+        <v>28.62265061804458</v>
       </c>
       <c r="G3">
-        <v>2.182526428023061</v>
+        <v>35.83985960417129</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>3.240584937593862</v>
       </c>
       <c r="J3">
-        <v>7.134177861733781</v>
+        <v>12.28161870647317</v>
       </c>
       <c r="K3">
-        <v>9.979622654930946</v>
+        <v>18.9610077389267</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.15494190402353</v>
       </c>
       <c r="M3">
-        <v>9.680441286006822</v>
+        <v>10.42508330344226</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>10.61496380617108</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.29776485003023</v>
+        <v>10.79871483956999</v>
       </c>
       <c r="C4">
-        <v>4.806233489750239</v>
+        <v>6.756891523048797</v>
       </c>
       <c r="D4">
-        <v>4.863611002079884</v>
+        <v>4.890847162938059</v>
       </c>
       <c r="E4">
-        <v>5.380602497995288</v>
+        <v>8.199334522827748</v>
       </c>
       <c r="F4">
-        <v>62.77052963263991</v>
+        <v>28.28177486040521</v>
       </c>
       <c r="G4">
-        <v>2.189309069933678</v>
+        <v>35.38923058411483</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>3.404440000670436</v>
       </c>
       <c r="J4">
-        <v>7.083536786609887</v>
+        <v>12.2542117545261</v>
       </c>
       <c r="K4">
-        <v>9.718669378249247</v>
+        <v>18.93333998940682</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.068124403700243</v>
       </c>
       <c r="M4">
-        <v>9.59035618242363</v>
+        <v>9.994354522381538</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10.28430489288109</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.13688265365856</v>
+        <v>10.58601476433432</v>
       </c>
       <c r="C5">
-        <v>4.728808272341339</v>
+        <v>6.619938921779534</v>
       </c>
       <c r="D5">
-        <v>4.795158883052799</v>
+        <v>4.819444937777337</v>
       </c>
       <c r="E5">
-        <v>5.391267958550936</v>
+        <v>8.099655765528929</v>
       </c>
       <c r="F5">
-        <v>61.98506430999397</v>
+        <v>28.14476303479299</v>
       </c>
       <c r="G5">
-        <v>2.192111338675353</v>
+        <v>35.20901045005115</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>3.472589277870397</v>
       </c>
       <c r="J5">
-        <v>7.063395591613754</v>
+        <v>12.24423270103137</v>
       </c>
       <c r="K5">
-        <v>9.613592465791626</v>
+        <v>18.92419048849218</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.03215898518124</v>
       </c>
       <c r="M5">
-        <v>9.556193870248952</v>
+        <v>9.813290509434248</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.14670123242233</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.11015086406534</v>
+        <v>10.55027557189157</v>
       </c>
       <c r="C6">
-        <v>4.715984811192754</v>
+        <v>6.596925955830733</v>
       </c>
       <c r="D6">
-        <v>4.783715097743904</v>
+        <v>4.807486182572963</v>
       </c>
       <c r="E6">
-        <v>5.39311595558654</v>
+        <v>8.082975144978871</v>
       </c>
       <c r="F6">
-        <v>61.85407125581454</v>
+        <v>28.12212952575472</v>
       </c>
       <c r="G6">
-        <v>2.192579040736689</v>
+        <v>35.17929412321082</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>3.483989298848376</v>
       </c>
       <c r="J6">
-        <v>7.060080743861271</v>
+        <v>12.24264666160162</v>
       </c>
       <c r="K6">
-        <v>9.596224861809944</v>
+        <v>18.92279766772528</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.026151826989852</v>
       </c>
       <c r="M6">
-        <v>9.550673676319507</v>
+        <v>9.782891486553952</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10.12368399582137</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.29559645720341</v>
+        <v>10.79587447630812</v>
       </c>
       <c r="C7">
-        <v>4.805187177829212</v>
+        <v>6.755062762515182</v>
       </c>
       <c r="D7">
-        <v>4.862693016055198</v>
+        <v>4.889891115164983</v>
       </c>
       <c r="E7">
-        <v>5.380741141012263</v>
+        <v>8.197998915232411</v>
       </c>
       <c r="F7">
-        <v>62.75997499134927</v>
+        <v>28.27991926975846</v>
       </c>
       <c r="G7">
-        <v>2.189346703866355</v>
+        <v>35.38678611599985</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>3.405353477584451</v>
       </c>
       <c r="J7">
-        <v>7.083263164852776</v>
+        <v>12.25407239639429</v>
       </c>
       <c r="K7">
-        <v>9.717246978103189</v>
+        <v>18.93320807719082</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.06764172314996</v>
       </c>
       <c r="M7">
-        <v>9.589885205854307</v>
+        <v>9.991935010735917</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>10.2824604992917</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.1098654308456</v>
+        <v>11.81861251144634</v>
       </c>
       <c r="C8">
-        <v>5.357500786997931</v>
+        <v>7.413459373288258</v>
       </c>
       <c r="D8">
-        <v>5.20001736970515</v>
+        <v>5.238251361531549</v>
       </c>
       <c r="E8">
-        <v>5.337690075572013</v>
+        <v>8.686370044377373</v>
       </c>
       <c r="F8">
-        <v>66.67116985870869</v>
+        <v>28.99263065931893</v>
       </c>
       <c r="G8">
-        <v>2.175412048895577</v>
+        <v>36.33210944405978</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>3.070372656741182</v>
       </c>
       <c r="J8">
-        <v>7.18994409537827</v>
+        <v>12.31501311280146</v>
       </c>
       <c r="K8">
-        <v>10.26203982940194</v>
+        <v>18.99798034458784</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.245552066492971</v>
       </c>
       <c r="M8">
-        <v>9.785414124215379</v>
+        <v>10.86570105572055</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>10.95765836838017</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.68103219724447</v>
+        <v>13.60617373340921</v>
       </c>
       <c r="C9">
-        <v>6.380613707303665</v>
+        <v>8.564274334122562</v>
       </c>
       <c r="D9">
-        <v>5.822497857869335</v>
+        <v>5.863676744529815</v>
       </c>
       <c r="E9">
-        <v>5.298514707654932</v>
+        <v>9.571654104703681</v>
       </c>
       <c r="F9">
-        <v>74.00423222380051</v>
+        <v>30.44330125877409</v>
       </c>
       <c r="G9">
-        <v>2.149074717815768</v>
+        <v>38.2857328571023</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.454940134436625</v>
       </c>
       <c r="J9">
-        <v>7.415772577200067</v>
+        <v>12.47426106073816</v>
       </c>
       <c r="K9">
-        <v>11.52212314002083</v>
+        <v>19.19700014992945</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.575278512563059</v>
       </c>
       <c r="M9">
-        <v>10.25269260805402</v>
+        <v>12.40302780297793</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>12.18257700112269</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.02563943400902</v>
+        <v>14.80352991368907</v>
       </c>
       <c r="C10">
-        <v>7.09214991262741</v>
+        <v>9.301062102404325</v>
       </c>
       <c r="D10">
-        <v>6.257988610986549</v>
+        <v>6.232110757495289</v>
       </c>
       <c r="E10">
-        <v>5.301038260833406</v>
+        <v>10.00653576428027</v>
       </c>
       <c r="F10">
-        <v>79.1762658874643</v>
+        <v>31.28113194134398</v>
       </c>
       <c r="G10">
-        <v>2.130118136155862</v>
+        <v>39.42012393838897</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.060454805980104</v>
       </c>
       <c r="J10">
-        <v>7.592814657307205</v>
+        <v>12.54716891363703</v>
       </c>
       <c r="K10">
-        <v>12.71684897237664</v>
+        <v>19.26033327205046</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.729347074444315</v>
       </c>
       <c r="M10">
-        <v>10.64984136621811</v>
+        <v>13.42627929439286</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>12.92394328168948</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.63558745740428</v>
+        <v>15.45221352146336</v>
       </c>
       <c r="C11">
-        <v>7.408530213708481</v>
+        <v>9.408413445338097</v>
       </c>
       <c r="D11">
-        <v>6.451968901245227</v>
+        <v>5.929066590477564</v>
       </c>
       <c r="E11">
-        <v>5.309864678261738</v>
+        <v>8.804855931968364</v>
       </c>
       <c r="F11">
-        <v>81.48309466832984</v>
+        <v>29.47131529207043</v>
       </c>
       <c r="G11">
-        <v>2.121526105420829</v>
+        <v>36.88399088507431</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>2.960130009322176</v>
       </c>
       <c r="J11">
-        <v>7.676039497789415</v>
+        <v>11.98354496329767</v>
       </c>
       <c r="K11">
-        <v>13.24251440877016</v>
+        <v>18.18007228793334</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.214333136442209</v>
       </c>
       <c r="M11">
-        <v>11.03664147357457</v>
+        <v>13.8804899520754</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>12.44628608481352</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.86396344027563</v>
+        <v>15.76013534788886</v>
       </c>
       <c r="C12">
-        <v>7.527426878006814</v>
+        <v>9.348756061104488</v>
       </c>
       <c r="D12">
-        <v>6.52489445335466</v>
+        <v>5.596056600423355</v>
       </c>
       <c r="E12">
-        <v>5.314390225554041</v>
+        <v>7.804421700628161</v>
       </c>
       <c r="F12">
-        <v>82.35027145087098</v>
+        <v>27.75392398920765</v>
       </c>
       <c r="G12">
-        <v>2.118271904481631</v>
+        <v>34.47592491399521</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.292205054426269</v>
       </c>
       <c r="J12">
-        <v>7.70796784888967</v>
+        <v>11.49260675802698</v>
       </c>
       <c r="K12">
-        <v>13.43919892532549</v>
+        <v>17.26236456205728</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.86299893404402</v>
       </c>
       <c r="M12">
-        <v>11.19674453125772</v>
+        <v>14.05825085563338</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>11.88086957350525</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.81489099081715</v>
+        <v>15.83444851054238</v>
       </c>
       <c r="C13">
-        <v>7.50185833561078</v>
+        <v>9.155195005655816</v>
       </c>
       <c r="D13">
-        <v>6.509211100261973</v>
+        <v>5.211671000686923</v>
       </c>
       <c r="E13">
-        <v>5.313361625654482</v>
+        <v>6.926158013016686</v>
       </c>
       <c r="F13">
-        <v>82.16378724268939</v>
+        <v>25.98593855877794</v>
       </c>
       <c r="G13">
-        <v>2.11897286943896</v>
+        <v>31.9871412264788</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.698389927988176</v>
       </c>
       <c r="J13">
-        <v>7.701072668741896</v>
+        <v>11.02767345031656</v>
       </c>
       <c r="K13">
-        <v>13.39694167773699</v>
+        <v>16.4164921982496</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.632537066794181</v>
       </c>
       <c r="M13">
-        <v>11.1623490998853</v>
+        <v>14.03939870374265</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.20023074885949</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.65442703500057</v>
+        <v>15.7824067513127</v>
       </c>
       <c r="C14">
-        <v>7.418329261157647</v>
+        <v>8.956595023827727</v>
       </c>
       <c r="D14">
-        <v>6.457978761558921</v>
+        <v>4.916132677694225</v>
       </c>
       <c r="E14">
-        <v>5.310212811980081</v>
+        <v>6.419379091077923</v>
       </c>
       <c r="F14">
-        <v>81.55456355795174</v>
+        <v>24.72830407826936</v>
       </c>
       <c r="G14">
-        <v>2.121258423719253</v>
+        <v>30.20791476759249</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.70278058864866</v>
       </c>
       <c r="J14">
-        <v>7.678657818085519</v>
+        <v>10.71785182588289</v>
       </c>
       <c r="K14">
-        <v>13.25874215900339</v>
+        <v>15.86724844750535</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.552331563307177</v>
       </c>
       <c r="M14">
-        <v>11.04985208753609</v>
+        <v>13.93742519723612</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.6647376059097</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.5558056421101</v>
+        <v>15.71919538033032</v>
       </c>
       <c r="C15">
-        <v>7.367051370718686</v>
+        <v>8.878653138205792</v>
       </c>
       <c r="D15">
-        <v>6.426530445220807</v>
+        <v>4.832410983389262</v>
       </c>
       <c r="E15">
-        <v>5.308440600187994</v>
+        <v>6.309108742904032</v>
       </c>
       <c r="F15">
-        <v>81.18057670540882</v>
+        <v>24.41396006973482</v>
       </c>
       <c r="G15">
-        <v>2.122658152576902</v>
+        <v>29.76190912218828</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.938983425203348</v>
       </c>
       <c r="J15">
-        <v>7.664982716196872</v>
+        <v>10.64861937621208</v>
       </c>
       <c r="K15">
-        <v>13.17378789539559</v>
+        <v>15.74943057508831</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.541706676377984</v>
       </c>
       <c r="M15">
-        <v>10.98069073033415</v>
+        <v>13.86978973485897</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.50933706016941</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.98540406193112</v>
+        <v>15.22347615388561</v>
       </c>
       <c r="C16">
-        <v>7.071338276590504</v>
+        <v>8.600939573003915</v>
       </c>
       <c r="D16">
-        <v>6.245233610013532</v>
+        <v>4.732795416367764</v>
       </c>
       <c r="E16">
-        <v>5.300622570844147</v>
+        <v>6.256747585214336</v>
       </c>
       <c r="F16">
-        <v>79.0246014473684</v>
+        <v>24.3726644766249</v>
       </c>
       <c r="G16">
-        <v>2.130679856430055</v>
+        <v>29.70588839182528</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.76535979159346</v>
       </c>
       <c r="J16">
-        <v>7.587431950967857</v>
+        <v>10.71001506386075</v>
       </c>
       <c r="K16">
-        <v>12.6821524944088</v>
+        <v>15.89387397333067</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.513007898549146</v>
       </c>
       <c r="M16">
-        <v>10.6374806515298</v>
+        <v>13.45424460707633</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.29973187320986</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.63065650630419</v>
+        <v>14.8630053625646</v>
       </c>
       <c r="C17">
-        <v>6.888150706679792</v>
+        <v>8.494516505828811</v>
       </c>
       <c r="D17">
-        <v>6.132998016358339</v>
+        <v>4.818438730808452</v>
       </c>
       <c r="E17">
-        <v>5.297847578868017</v>
+        <v>6.464823561008102</v>
       </c>
       <c r="F17">
-        <v>77.69033267738745</v>
+        <v>25.01603818337103</v>
       </c>
       <c r="G17">
-        <v>2.135605529871711</v>
+        <v>30.62322066344619</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.074113479109174</v>
       </c>
       <c r="J17">
-        <v>7.540562764905767</v>
+        <v>10.9207593758657</v>
       </c>
       <c r="K17">
-        <v>12.37611255087528</v>
+        <v>16.29206024821058</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.519784651233247</v>
       </c>
       <c r="M17">
-        <v>10.53054345211558</v>
+        <v>13.18522051108474</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.43267838926287</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.42478793235154</v>
+        <v>14.58595208964285</v>
       </c>
       <c r="C18">
-        <v>6.782089177665876</v>
+        <v>8.528278502255622</v>
       </c>
       <c r="D18">
-        <v>6.068050216713622</v>
+        <v>5.076907374078008</v>
       </c>
       <c r="E18">
-        <v>5.296969163793765</v>
+        <v>7.050403176699108</v>
       </c>
       <c r="F18">
-        <v>76.91854751972413</v>
+        <v>26.33035383010982</v>
       </c>
       <c r="G18">
-        <v>2.138441945380764</v>
+        <v>32.48675395629444</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.895211346829456</v>
       </c>
       <c r="J18">
-        <v>7.513855971712593</v>
+        <v>11.28844662517623</v>
       </c>
       <c r="K18">
-        <v>12.19839633986957</v>
+        <v>16.96840425380429</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.637141662505973</v>
       </c>
       <c r="M18">
-        <v>10.47019492588996</v>
+        <v>13.01849945636572</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>10.87689040278638</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.35476579441813</v>
+        <v>14.40285439904484</v>
       </c>
       <c r="C19">
-        <v>6.746054963497936</v>
+        <v>8.672638522460979</v>
       </c>
       <c r="D19">
-        <v>6.045990808303589</v>
+        <v>5.455201779766039</v>
       </c>
       <c r="E19">
-        <v>5.296792693593113</v>
+        <v>8.032218657708928</v>
       </c>
       <c r="F19">
-        <v>76.6564825509556</v>
+        <v>28.10257479198275</v>
       </c>
       <c r="G19">
-        <v>2.139403018377635</v>
+        <v>34.98506558842458</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.532677240241883</v>
       </c>
       <c r="J19">
-        <v>7.504855911072942</v>
+        <v>11.7648260735243</v>
       </c>
       <c r="K19">
-        <v>12.137929037134</v>
+        <v>17.84457457792138</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.942107197784321</v>
       </c>
       <c r="M19">
-        <v>10.44995923615706</v>
+        <v>12.95075676778875</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>11.53263318707878</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.66860793906496</v>
+        <v>14.49874544177061</v>
       </c>
       <c r="C20">
-        <v>6.907722516300044</v>
+        <v>9.111841994080269</v>
       </c>
       <c r="D20">
-        <v>6.144985927767632</v>
+        <v>6.135038975276816</v>
       </c>
       <c r="E20">
-        <v>5.29806814909646</v>
+        <v>9.886708253217957</v>
       </c>
       <c r="F20">
-        <v>77.83281672519217</v>
+        <v>31.04739347745775</v>
       </c>
       <c r="G20">
-        <v>2.135080877023713</v>
+        <v>39.10166447404808</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.162217925859178</v>
       </c>
       <c r="J20">
-        <v>7.545525903027086</v>
+        <v>12.52309421507891</v>
       </c>
       <c r="K20">
-        <v>12.4088646557596</v>
+        <v>19.23451401737402</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.685993934258231</v>
       </c>
       <c r="M20">
-        <v>10.54180672923897</v>
+        <v>13.16489156609986</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>12.72904084691377</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.70162813904297</v>
+        <v>15.35288158207392</v>
       </c>
       <c r="C21">
-        <v>7.442887233291416</v>
+        <v>9.689636709403942</v>
       </c>
       <c r="D21">
-        <v>6.473040781154259</v>
+        <v>6.490169962735773</v>
       </c>
       <c r="E21">
-        <v>5.311104925418212</v>
+        <v>10.46892433995091</v>
       </c>
       <c r="F21">
-        <v>81.73367751473398</v>
+        <v>32.09333808369374</v>
       </c>
       <c r="G21">
-        <v>2.120587160935781</v>
+        <v>40.5397584968609</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>1.815373363268989</v>
       </c>
       <c r="J21">
-        <v>7.685230161571136</v>
+        <v>12.69623741191684</v>
       </c>
       <c r="K21">
-        <v>13.29939749302676</v>
+        <v>19.5017618379525</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.918637087829292</v>
       </c>
       <c r="M21">
-        <v>11.08294774546012</v>
+        <v>13.91451689931931</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>13.42101186446342</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.36172911847173</v>
+        <v>15.89577730027911</v>
       </c>
       <c r="C22">
-        <v>7.78742794225115</v>
+        <v>10.03969719712047</v>
       </c>
       <c r="D22">
-        <v>6.684388953205735</v>
+        <v>6.687319438407063</v>
       </c>
       <c r="E22">
-        <v>5.326562647174882</v>
+        <v>10.75335339131557</v>
       </c>
       <c r="F22">
-        <v>84.24621286937415</v>
+        <v>32.64959188569571</v>
       </c>
       <c r="G22">
-        <v>2.111108390152399</v>
+        <v>41.305299212609</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>1.608651784953389</v>
       </c>
       <c r="J22">
-        <v>7.778957750540279</v>
+        <v>12.77881891483065</v>
       </c>
       <c r="K22">
-        <v>13.86768387718356</v>
+        <v>19.61946674596023</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.029308739614482</v>
       </c>
       <c r="M22">
-        <v>11.5454407821166</v>
+        <v>14.385783811477</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>13.81241721589528</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.01072996895504</v>
+        <v>15.60813494213677</v>
       </c>
       <c r="C23">
-        <v>7.603965335014697</v>
+        <v>9.854204814026978</v>
       </c>
       <c r="D23">
-        <v>6.571844029264954</v>
+        <v>6.582735711371865</v>
       </c>
       <c r="E23">
-        <v>5.317650136274503</v>
+        <v>10.60234907324774</v>
       </c>
       <c r="F23">
-        <v>82.90848278969956</v>
+        <v>32.35240374238134</v>
       </c>
       <c r="G23">
-        <v>2.116169832139706</v>
+        <v>40.89598214614742</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>1.718655067275765</v>
       </c>
       <c r="J23">
-        <v>7.728701813682242</v>
+        <v>12.7342568440664</v>
       </c>
       <c r="K23">
-        <v>13.56556560395374</v>
+        <v>19.55572564625736</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.970446414729945</v>
       </c>
       <c r="M23">
-        <v>11.29959353879189</v>
+        <v>14.13601374084105</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>13.60470050827247</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.65145608779462</v>
+        <v>14.47211993116517</v>
       </c>
       <c r="C24">
-        <v>6.898876430589768</v>
+        <v>9.122030357506883</v>
       </c>
       <c r="D24">
-        <v>6.139567512236909</v>
+        <v>6.172655092523908</v>
       </c>
       <c r="E24">
-        <v>5.297966202017543</v>
+        <v>10.01290495802047</v>
       </c>
       <c r="F24">
-        <v>77.76841433112112</v>
+        <v>31.23397440374692</v>
       </c>
       <c r="G24">
-        <v>2.135318057933267</v>
+        <v>39.36237694231778</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.142686556423694</v>
       </c>
       <c r="J24">
-        <v>7.543281326010151</v>
+        <v>12.57601170995301</v>
       </c>
       <c r="K24">
-        <v>12.39406295554</v>
+        <v>19.33414110613016</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.743014031832415</v>
       </c>
       <c r="M24">
-        <v>10.53671108322794</v>
+        <v>13.15138551667583</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>12.79221378853559</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.25947290871196</v>
+        <v>13.14576674245502</v>
       </c>
       <c r="C25">
-        <v>6.111296417957325</v>
+        <v>8.267818039861579</v>
       </c>
       <c r="D25">
-        <v>5.658109550212523</v>
+        <v>5.700864716580393</v>
       </c>
       <c r="E25">
-        <v>5.303898049240709</v>
+        <v>9.340164304309393</v>
       </c>
       <c r="F25">
-        <v>72.05807620291102</v>
+        <v>30.04572370612638</v>
       </c>
       <c r="G25">
-        <v>2.156114050427609</v>
+        <v>37.74718319536127</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.61716725058455</v>
       </c>
       <c r="J25">
-        <v>7.352805778141677</v>
+        <v>12.42674428531272</v>
       </c>
       <c r="K25">
-        <v>11.06522321792315</v>
+        <v>19.1350451690572</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.488171188344332</v>
       </c>
       <c r="M25">
-        <v>10.11702872233651</v>
+        <v>12.00602555726409</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>11.86240619108357</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.08091338010523</v>
+        <v>12.0557141724097</v>
       </c>
       <c r="C2">
-        <v>7.58230508436884</v>
+        <v>8.321542345586554</v>
       </c>
       <c r="D2">
-        <v>5.328815307478957</v>
+        <v>5.742283447414903</v>
       </c>
       <c r="E2">
-        <v>8.81389285743438</v>
+        <v>9.040068297838387</v>
       </c>
       <c r="F2">
-        <v>29.18952677251983</v>
+        <v>27.51659812057297</v>
       </c>
       <c r="G2">
-        <v>36.59523312975598</v>
+        <v>33.43162223371525</v>
       </c>
       <c r="H2">
-        <v>2.982477597380834</v>
+        <v>2.855541997983094</v>
       </c>
       <c r="J2">
-        <v>12.33414890823789</v>
+        <v>11.82007814249469</v>
       </c>
       <c r="K2">
-        <v>19.02025611820661</v>
+        <v>17.47080088558946</v>
       </c>
       <c r="L2">
-        <v>6.292476758567868</v>
+        <v>14.12989200980813</v>
       </c>
       <c r="M2">
-        <v>11.09054836359117</v>
+        <v>11.76661045529371</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.301115354053416</v>
       </c>
       <c r="O2">
-        <v>11.13412280711836</v>
+        <v>11.27288128308826</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.31906529956875</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.30359592552474</v>
+        <v>11.32473627911035</v>
       </c>
       <c r="C3">
-        <v>7.081930324509296</v>
+        <v>7.70858204820806</v>
       </c>
       <c r="D3">
-        <v>5.061832575882436</v>
+        <v>5.451477899681999</v>
       </c>
       <c r="E3">
-        <v>8.438617776810956</v>
+        <v>8.675799637110389</v>
       </c>
       <c r="F3">
-        <v>28.62265061804458</v>
+        <v>27.0925843834433</v>
       </c>
       <c r="G3">
-        <v>35.83985960417129</v>
+        <v>32.98963907768665</v>
       </c>
       <c r="H3">
-        <v>3.240584937593862</v>
+        <v>3.093304035588265</v>
       </c>
       <c r="J3">
-        <v>12.28161870647317</v>
+        <v>11.7639942357708</v>
       </c>
       <c r="K3">
-        <v>18.9610077389267</v>
+        <v>17.50776572277441</v>
       </c>
       <c r="L3">
-        <v>6.15494190402353</v>
+        <v>14.23630961928165</v>
       </c>
       <c r="M3">
-        <v>10.42508330344226</v>
+        <v>11.73325182767504</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.179743996086711</v>
       </c>
       <c r="O3">
-        <v>10.61496380617108</v>
+        <v>10.59918978136553</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.78203554101829</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.79871483956999</v>
+        <v>10.85040879308457</v>
       </c>
       <c r="C4">
-        <v>6.756891523048797</v>
+        <v>7.33442198972237</v>
       </c>
       <c r="D4">
-        <v>4.890847162938059</v>
+        <v>5.2657958021139</v>
       </c>
       <c r="E4">
-        <v>8.199334522827748</v>
+        <v>8.444071867898947</v>
       </c>
       <c r="F4">
-        <v>28.28177486040521</v>
+        <v>26.83877007265998</v>
       </c>
       <c r="G4">
-        <v>35.38923058411483</v>
+        <v>32.73560214854436</v>
       </c>
       <c r="H4">
-        <v>3.404440000670436</v>
+        <v>3.244373928907216</v>
       </c>
       <c r="J4">
-        <v>12.2542117545261</v>
+        <v>11.73149509191598</v>
       </c>
       <c r="K4">
-        <v>18.93333998940682</v>
+        <v>17.53692991038909</v>
       </c>
       <c r="L4">
-        <v>6.068124403700243</v>
+        <v>14.30321402485723</v>
       </c>
       <c r="M4">
-        <v>9.994354522381538</v>
+        <v>11.73446559824915</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.103171771408213</v>
       </c>
       <c r="O4">
-        <v>10.28430489288109</v>
+        <v>10.1631814660095</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.43972923604719</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.58601476433432</v>
+        <v>10.65071945819846</v>
       </c>
       <c r="C5">
-        <v>6.619938921779534</v>
+        <v>7.177268250686061</v>
       </c>
       <c r="D5">
-        <v>4.819444937777337</v>
+        <v>5.188412679001785</v>
       </c>
       <c r="E5">
-        <v>8.099655765528929</v>
+        <v>8.347684815316192</v>
       </c>
       <c r="F5">
-        <v>28.14476303479299</v>
+        <v>26.73700734973859</v>
       </c>
       <c r="G5">
-        <v>35.20901045005115</v>
+        <v>32.6363561133482</v>
       </c>
       <c r="H5">
-        <v>3.472589277870397</v>
+        <v>3.307235214882735</v>
       </c>
       <c r="J5">
-        <v>12.24423270103137</v>
+        <v>11.71872829819974</v>
       </c>
       <c r="K5">
-        <v>18.92419048849218</v>
+        <v>17.55037897685157</v>
       </c>
       <c r="L5">
-        <v>6.03215898518124</v>
+        <v>14.3308748650439</v>
       </c>
       <c r="M5">
-        <v>9.813290509434248</v>
+        <v>11.74032672023915</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.07146078867907</v>
       </c>
       <c r="O5">
-        <v>10.14670123242233</v>
+        <v>9.979924592493989</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.29721956865941</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.55027557189157</v>
+        <v>10.61717552281378</v>
       </c>
       <c r="C6">
-        <v>6.596925955830733</v>
+        <v>7.150892148721313</v>
       </c>
       <c r="D6">
-        <v>4.807486182572963</v>
+        <v>5.175462110195504</v>
       </c>
       <c r="E6">
-        <v>8.082975144978871</v>
+        <v>8.331563990398415</v>
       </c>
       <c r="F6">
-        <v>28.12212952575472</v>
+        <v>26.72021120536871</v>
       </c>
       <c r="G6">
-        <v>35.17929412321082</v>
+        <v>32.62013194636785</v>
       </c>
       <c r="H6">
-        <v>3.483989298848376</v>
+        <v>3.317752342625033</v>
       </c>
       <c r="J6">
-        <v>12.24264666160162</v>
+        <v>11.71663688556192</v>
       </c>
       <c r="K6">
-        <v>18.92279766772528</v>
+        <v>17.5527048958814</v>
       </c>
       <c r="L6">
-        <v>6.026151826989852</v>
+        <v>14.33549199583198</v>
       </c>
       <c r="M6">
-        <v>9.782891486553952</v>
+        <v>11.74162102293065</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.066164828045868</v>
       </c>
       <c r="O6">
-        <v>10.12368399582137</v>
+        <v>9.949159463363237</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.27337838254</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.79587447630812</v>
+        <v>10.84892124127382</v>
       </c>
       <c r="C7">
-        <v>6.755062762515182</v>
+        <v>7.322895734963744</v>
       </c>
       <c r="D7">
-        <v>4.889891115164983</v>
+        <v>5.271484398459937</v>
       </c>
       <c r="E7">
-        <v>8.197998915232411</v>
+        <v>8.444817990269621</v>
       </c>
       <c r="F7">
-        <v>28.27991926975846</v>
+        <v>26.81133482128382</v>
       </c>
       <c r="G7">
-        <v>35.38678611599985</v>
+        <v>32.78860993468293</v>
       </c>
       <c r="H7">
-        <v>3.405353477584451</v>
+        <v>3.245944145987932</v>
       </c>
       <c r="J7">
-        <v>12.25407239639429</v>
+        <v>11.68536375638533</v>
       </c>
       <c r="K7">
-        <v>18.93320807719082</v>
+        <v>17.52257900575447</v>
       </c>
       <c r="L7">
-        <v>6.06764172314996</v>
+        <v>14.29093131436934</v>
       </c>
       <c r="M7">
-        <v>9.991935010735917</v>
+        <v>11.72518361366571</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.101797148793493</v>
       </c>
       <c r="O7">
-        <v>10.2824604992917</v>
+        <v>10.15865698760605</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.43832488967223</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.81861251144634</v>
+        <v>11.81264995470461</v>
       </c>
       <c r="C8">
-        <v>7.413459373288258</v>
+        <v>8.08613704770768</v>
       </c>
       <c r="D8">
-        <v>5.238251361531549</v>
+        <v>5.664653025314227</v>
       </c>
       <c r="E8">
-        <v>8.686370044377373</v>
+        <v>8.922752307795911</v>
       </c>
       <c r="F8">
-        <v>28.99263065931893</v>
+        <v>27.2849238879208</v>
       </c>
       <c r="G8">
-        <v>36.33210944405978</v>
+        <v>33.45427058945607</v>
       </c>
       <c r="H8">
-        <v>3.070372656741182</v>
+        <v>2.938725719675056</v>
       </c>
       <c r="J8">
-        <v>12.31501311280146</v>
+        <v>11.65076806270269</v>
       </c>
       <c r="K8">
-        <v>18.99798034458784</v>
+        <v>17.43480210235317</v>
       </c>
       <c r="L8">
-        <v>6.245552066492971</v>
+        <v>14.12730538780708</v>
       </c>
       <c r="M8">
-        <v>10.86570105572055</v>
+        <v>11.71740897492355</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.256712862311358</v>
       </c>
       <c r="O8">
-        <v>10.95765836838017</v>
+        <v>11.03886906647401</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.13811504328523</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.60617373340921</v>
+        <v>13.49559664078524</v>
       </c>
       <c r="C9">
-        <v>8.564274334122562</v>
+        <v>9.490139656315552</v>
       </c>
       <c r="D9">
-        <v>5.863676744529815</v>
+        <v>6.351552717597141</v>
       </c>
       <c r="E9">
-        <v>9.571654104703681</v>
+        <v>9.785776335367984</v>
       </c>
       <c r="F9">
-        <v>30.44330125877409</v>
+        <v>28.36019172971492</v>
       </c>
       <c r="G9">
-        <v>38.2857328571023</v>
+        <v>34.69906429302033</v>
       </c>
       <c r="H9">
-        <v>2.454940134436625</v>
+        <v>2.372979414871424</v>
       </c>
       <c r="J9">
-        <v>12.47426106073816</v>
+        <v>11.76444792317382</v>
       </c>
       <c r="K9">
-        <v>19.19700014992945</v>
+        <v>17.36976431334657</v>
       </c>
       <c r="L9">
-        <v>6.575278512563059</v>
+        <v>13.86484901830579</v>
       </c>
       <c r="M9">
-        <v>12.40302780297793</v>
+        <v>11.9113721834627</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.547397201421656</v>
       </c>
       <c r="O9">
-        <v>12.18257700112269</v>
+        <v>12.59401530504628</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.40367311604799</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.80352991368907</v>
+        <v>14.63337163944418</v>
       </c>
       <c r="C10">
-        <v>9.301062102404325</v>
+        <v>10.33510547492668</v>
       </c>
       <c r="D10">
-        <v>6.232110757495289</v>
+        <v>6.788591197781797</v>
       </c>
       <c r="E10">
-        <v>10.00653576428027</v>
+        <v>10.2157806961205</v>
       </c>
       <c r="F10">
-        <v>31.28113194134398</v>
+        <v>28.82065138163196</v>
       </c>
       <c r="G10">
-        <v>39.42012393838897</v>
+        <v>35.69784483000296</v>
       </c>
       <c r="H10">
-        <v>2.060454805980104</v>
+        <v>2.016547254089391</v>
       </c>
       <c r="J10">
-        <v>12.54716891363703</v>
+        <v>11.55345742977465</v>
       </c>
       <c r="K10">
-        <v>19.26033327205046</v>
+        <v>17.17857577355009</v>
       </c>
       <c r="L10">
-        <v>6.729347074444315</v>
+        <v>13.54916623760948</v>
       </c>
       <c r="M10">
-        <v>13.42627929439286</v>
+        <v>12.01775840707186</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.672638793645863</v>
       </c>
       <c r="O10">
-        <v>12.92394328168948</v>
+        <v>13.61690598693254</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.17006090423781</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.45221352146336</v>
+        <v>15.29876969252892</v>
       </c>
       <c r="C11">
-        <v>9.408413445338097</v>
+        <v>10.28149939570452</v>
       </c>
       <c r="D11">
-        <v>5.929066590477564</v>
+        <v>6.514185011006439</v>
       </c>
       <c r="E11">
-        <v>8.804855931968364</v>
+        <v>9.008974016685508</v>
       </c>
       <c r="F11">
-        <v>29.47131529207043</v>
+        <v>26.89257146074765</v>
       </c>
       <c r="G11">
-        <v>36.88399088507431</v>
+        <v>34.05869150896929</v>
       </c>
       <c r="H11">
-        <v>2.960130009322176</v>
+        <v>2.93942429526633</v>
       </c>
       <c r="J11">
-        <v>11.98354496329767</v>
+        <v>10.61119981528198</v>
       </c>
       <c r="K11">
-        <v>18.18007228793334</v>
+        <v>16.11504715200115</v>
       </c>
       <c r="L11">
-        <v>6.214333136442209</v>
+        <v>12.71930177799122</v>
       </c>
       <c r="M11">
-        <v>13.8804899520754</v>
+        <v>11.27814738767752</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.16337294896648</v>
       </c>
       <c r="O11">
-        <v>12.44628608481352</v>
+        <v>14.03742470187654</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>12.68061505292041</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.76013534788886</v>
+        <v>15.62999394223743</v>
       </c>
       <c r="C12">
-        <v>9.348756061104488</v>
+        <v>10.08726531861151</v>
       </c>
       <c r="D12">
-        <v>5.596056600423355</v>
+        <v>6.169567251933545</v>
       </c>
       <c r="E12">
-        <v>7.804421700628161</v>
+        <v>7.991007141689978</v>
       </c>
       <c r="F12">
-        <v>27.75392398920765</v>
+        <v>25.24909621226743</v>
       </c>
       <c r="G12">
-        <v>34.47592491399521</v>
+        <v>32.24090642705833</v>
       </c>
       <c r="H12">
-        <v>4.292205054426269</v>
+        <v>4.27883312626818</v>
       </c>
       <c r="J12">
-        <v>11.49260675802698</v>
+        <v>10.05578878436978</v>
       </c>
       <c r="K12">
-        <v>17.26236456205728</v>
+        <v>15.32750284768448</v>
       </c>
       <c r="L12">
-        <v>5.86299893404402</v>
+        <v>12.15448819504804</v>
       </c>
       <c r="M12">
-        <v>14.05825085563338</v>
+        <v>10.66567150802091</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.827744379315906</v>
       </c>
       <c r="O12">
-        <v>11.88086957350525</v>
+        <v>14.19178388172223</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.09872402226394</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.83444851054238</v>
+        <v>15.73151121767525</v>
       </c>
       <c r="C13">
-        <v>9.155195005655816</v>
+        <v>9.784373625480786</v>
       </c>
       <c r="D13">
-        <v>5.211671000686923</v>
+        <v>5.729379457105402</v>
       </c>
       <c r="E13">
-        <v>6.926158013016686</v>
+        <v>7.083979204443626</v>
       </c>
       <c r="F13">
-        <v>25.98593855877794</v>
+        <v>23.76030809768745</v>
       </c>
       <c r="G13">
-        <v>31.9871412264788</v>
+        <v>30.0208006765289</v>
       </c>
       <c r="H13">
-        <v>5.698389927988176</v>
+        <v>5.685219193778424</v>
       </c>
       <c r="J13">
-        <v>11.02767345031656</v>
+        <v>9.796889264715393</v>
       </c>
       <c r="K13">
-        <v>16.4164921982496</v>
+        <v>14.72791178265221</v>
       </c>
       <c r="L13">
-        <v>5.632537066794181</v>
+        <v>11.75612938012208</v>
       </c>
       <c r="M13">
-        <v>14.03939870374265</v>
+        <v>10.14427035629364</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.620791331934844</v>
       </c>
       <c r="O13">
-        <v>11.20023074885949</v>
+        <v>14.15925547543836</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.39544282969388</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.7824067513127</v>
+        <v>15.70047332197639</v>
       </c>
       <c r="C14">
-        <v>8.956595023827727</v>
+        <v>9.518065086443794</v>
       </c>
       <c r="D14">
-        <v>4.916132677694225</v>
+        <v>5.375917051922748</v>
       </c>
       <c r="E14">
-        <v>6.419379091077923</v>
+        <v>6.554913678517514</v>
       </c>
       <c r="F14">
-        <v>24.72830407826936</v>
+        <v>22.78369160443255</v>
       </c>
       <c r="G14">
-        <v>30.20791476759249</v>
+        <v>28.29897753211689</v>
       </c>
       <c r="H14">
-        <v>6.70278058864866</v>
+        <v>6.688162917703269</v>
       </c>
       <c r="J14">
-        <v>10.71785182588289</v>
+        <v>9.72482754644972</v>
       </c>
       <c r="K14">
-        <v>15.86724844750535</v>
+        <v>14.39266681109207</v>
       </c>
       <c r="L14">
-        <v>5.552331563307177</v>
+        <v>11.54481712900906</v>
       </c>
       <c r="M14">
-        <v>13.93742519723612</v>
+        <v>9.826192153267701</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.558456649258424</v>
       </c>
       <c r="O14">
-        <v>10.6647376059097</v>
+        <v>14.05166183557175</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.84094149256773</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.71919538033032</v>
+        <v>15.6433967721618</v>
       </c>
       <c r="C15">
-        <v>8.878653138205792</v>
+        <v>9.42743335905687</v>
       </c>
       <c r="D15">
-        <v>4.832410983389262</v>
+        <v>5.270351644263481</v>
       </c>
       <c r="E15">
-        <v>6.309108742904032</v>
+        <v>6.440140959925272</v>
       </c>
       <c r="F15">
-        <v>24.41396006973482</v>
+        <v>22.57297374217993</v>
       </c>
       <c r="G15">
-        <v>29.76190912218828</v>
+        <v>27.81510234170732</v>
       </c>
       <c r="H15">
-        <v>6.938983425203348</v>
+        <v>6.923272970882308</v>
       </c>
       <c r="J15">
-        <v>10.64861937621208</v>
+        <v>9.751642735892178</v>
       </c>
       <c r="K15">
-        <v>15.74943057508831</v>
+        <v>14.34386569970423</v>
       </c>
       <c r="L15">
-        <v>5.541706676377984</v>
+        <v>11.5184216736119</v>
       </c>
       <c r="M15">
-        <v>13.86978973485897</v>
+        <v>9.767603470351203</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.552948887906212</v>
       </c>
       <c r="O15">
-        <v>10.50933706016941</v>
+        <v>13.98449633312084</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.67957334392014</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.22347615388561</v>
+        <v>15.15852674466877</v>
       </c>
       <c r="C16">
-        <v>8.600939573003915</v>
+        <v>9.180078879778405</v>
       </c>
       <c r="D16">
-        <v>4.732795416367764</v>
+        <v>5.10715402384942</v>
       </c>
       <c r="E16">
-        <v>6.256747585214336</v>
+        <v>6.398365585970724</v>
       </c>
       <c r="F16">
-        <v>24.3726644766249</v>
+        <v>22.82580649520349</v>
       </c>
       <c r="G16">
-        <v>29.70588839182528</v>
+        <v>27.34741854773778</v>
       </c>
       <c r="H16">
-        <v>6.76535979159346</v>
+        <v>6.741292819870074</v>
       </c>
       <c r="J16">
-        <v>10.71001506386075</v>
+        <v>10.15449184907741</v>
       </c>
       <c r="K16">
-        <v>15.89387397333067</v>
+        <v>14.63522670560002</v>
       </c>
       <c r="L16">
-        <v>5.513007898549146</v>
+        <v>11.74795100843173</v>
       </c>
       <c r="M16">
-        <v>13.45424460707633</v>
+        <v>9.930026375915187</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.534179119668052</v>
       </c>
       <c r="O16">
-        <v>10.29973187320986</v>
+        <v>13.58500484351608</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.45890826328037</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.8630053625646</v>
+        <v>14.79675704014218</v>
       </c>
       <c r="C17">
-        <v>8.494516505828811</v>
+        <v>9.124680069827965</v>
       </c>
       <c r="D17">
-        <v>4.818438730808452</v>
+        <v>5.181703856920049</v>
       </c>
       <c r="E17">
-        <v>6.464823561008102</v>
+        <v>6.621663279395193</v>
       </c>
       <c r="F17">
-        <v>25.01603818337103</v>
+        <v>23.51892975183831</v>
       </c>
       <c r="G17">
-        <v>30.62322066344619</v>
+        <v>27.98236030901503</v>
       </c>
       <c r="H17">
-        <v>6.074113479109174</v>
+        <v>6.0426010565937</v>
       </c>
       <c r="J17">
-        <v>10.9207593758657</v>
+        <v>10.48339893349238</v>
       </c>
       <c r="K17">
-        <v>16.29206024821058</v>
+        <v>15.02620505859404</v>
       </c>
       <c r="L17">
-        <v>5.519784651233247</v>
+        <v>12.04245527001935</v>
       </c>
       <c r="M17">
-        <v>13.18522051108474</v>
+        <v>10.20580964393453</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.540500506015503</v>
       </c>
       <c r="O17">
-        <v>10.43267838926287</v>
+        <v>13.32921120197702</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.59450704099833</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.58595208964285</v>
+        <v>14.5053477997107</v>
       </c>
       <c r="C18">
-        <v>8.528278502255622</v>
+        <v>9.248346682749906</v>
       </c>
       <c r="D18">
-        <v>5.076907374078008</v>
+        <v>5.461391410166705</v>
       </c>
       <c r="E18">
-        <v>7.050403176699108</v>
+        <v>7.222884392518441</v>
       </c>
       <c r="F18">
-        <v>26.33035383010982</v>
+        <v>24.72781626835659</v>
       </c>
       <c r="G18">
-        <v>32.48675395629444</v>
+        <v>29.51856659750663</v>
       </c>
       <c r="H18">
-        <v>4.895211346829456</v>
+        <v>4.854752161626807</v>
       </c>
       <c r="J18">
-        <v>11.28844662517623</v>
+        <v>10.85463311010008</v>
       </c>
       <c r="K18">
-        <v>16.96840425380429</v>
+        <v>15.58715642606927</v>
       </c>
       <c r="L18">
-        <v>5.637141662505973</v>
+        <v>12.45968052395126</v>
       </c>
       <c r="M18">
-        <v>13.01849945636572</v>
+        <v>10.63267190679952</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.647826669933164</v>
       </c>
       <c r="O18">
-        <v>10.87689040278638</v>
+        <v>13.17790533759366</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.05290427278602</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.40285439904484</v>
+        <v>14.29754259129301</v>
       </c>
       <c r="C19">
-        <v>8.672638522460979</v>
+        <v>9.511794978215496</v>
       </c>
       <c r="D19">
-        <v>5.455201779766039</v>
+        <v>5.880698932618954</v>
       </c>
       <c r="E19">
-        <v>8.032218657708928</v>
+        <v>8.218000594969036</v>
       </c>
       <c r="F19">
-        <v>28.10257479198275</v>
+        <v>26.29559984848978</v>
       </c>
       <c r="G19">
-        <v>34.98506558842458</v>
+        <v>31.63186497053939</v>
       </c>
       <c r="H19">
-        <v>3.532677240241883</v>
+        <v>3.480549040605778</v>
       </c>
       <c r="J19">
-        <v>11.7648260735243</v>
+        <v>11.26777363147579</v>
       </c>
       <c r="K19">
-        <v>17.84457457792138</v>
+        <v>16.2744637637438</v>
       </c>
       <c r="L19">
-        <v>5.942107197784321</v>
+        <v>12.96766273194981</v>
       </c>
       <c r="M19">
-        <v>12.95075676778875</v>
+        <v>11.17148031548563</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.93449702420491</v>
       </c>
       <c r="O19">
-        <v>11.53263318707878</v>
+        <v>13.12704656819261</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>11.73046270197783</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.49874544177061</v>
+        <v>14.34056261607543</v>
       </c>
       <c r="C20">
-        <v>9.111841994080269</v>
+        <v>10.14317376153802</v>
       </c>
       <c r="D20">
-        <v>6.135038975276816</v>
+        <v>6.653800682727623</v>
       </c>
       <c r="E20">
-        <v>9.886708253217957</v>
+        <v>10.09068189647151</v>
       </c>
       <c r="F20">
-        <v>31.04739347745775</v>
+        <v>28.77088617154667</v>
       </c>
       <c r="G20">
-        <v>39.10166447404808</v>
+        <v>35.23042982683385</v>
       </c>
       <c r="H20">
-        <v>2.162217925859178</v>
+        <v>2.106307898004968</v>
       </c>
       <c r="J20">
-        <v>12.52309421507891</v>
+        <v>11.75782715782284</v>
       </c>
       <c r="K20">
-        <v>19.23451401737402</v>
+        <v>17.27050285104027</v>
       </c>
       <c r="L20">
-        <v>6.685993934258231</v>
+        <v>13.66257746518081</v>
       </c>
       <c r="M20">
-        <v>13.16489156609986</v>
+        <v>12.01899022167476</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.639675442144248</v>
       </c>
       <c r="O20">
-        <v>12.72904084691377</v>
+        <v>13.36138605360648</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>12.96739890380678</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.35288158207392</v>
+        <v>15.16275115729271</v>
       </c>
       <c r="C21">
-        <v>9.689636709403942</v>
+        <v>10.69422230138188</v>
       </c>
       <c r="D21">
-        <v>6.490169962735773</v>
+        <v>7.171741560991252</v>
       </c>
       <c r="E21">
-        <v>10.46892433995091</v>
+        <v>10.70663790419299</v>
       </c>
       <c r="F21">
-        <v>32.09333808369374</v>
+        <v>29.04226610606671</v>
       </c>
       <c r="G21">
-        <v>40.5397584968609</v>
+        <v>37.47525754896059</v>
       </c>
       <c r="H21">
-        <v>1.815373363268989</v>
+        <v>1.799538449046444</v>
       </c>
       <c r="J21">
-        <v>12.69623741191684</v>
+        <v>10.91686251147238</v>
       </c>
       <c r="K21">
-        <v>19.5017618379525</v>
+        <v>17.03452905546932</v>
       </c>
       <c r="L21">
-        <v>6.918637087829292</v>
+        <v>13.35673295410351</v>
       </c>
       <c r="M21">
-        <v>13.91451689931931</v>
+        <v>12.04720441864661</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.832025285541028</v>
       </c>
       <c r="O21">
-        <v>13.42101186446342</v>
+        <v>14.08407286924251</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>13.68849398470958</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.89577730027911</v>
+        <v>15.68887395389277</v>
       </c>
       <c r="C22">
-        <v>10.03969719712047</v>
+        <v>11.01117601221229</v>
       </c>
       <c r="D22">
-        <v>6.687319438407063</v>
+        <v>7.476434475085108</v>
       </c>
       <c r="E22">
-        <v>10.75335339131557</v>
+        <v>11.01535421550449</v>
       </c>
       <c r="F22">
-        <v>32.64959188569571</v>
+        <v>29.08185091099841</v>
       </c>
       <c r="G22">
-        <v>41.305299212609</v>
+        <v>38.88355261612852</v>
       </c>
       <c r="H22">
-        <v>1.608651784953389</v>
+        <v>1.618259899486048</v>
       </c>
       <c r="J22">
-        <v>12.77881891483065</v>
+        <v>10.33181679824598</v>
       </c>
       <c r="K22">
-        <v>19.61946674596023</v>
+        <v>16.81644934080462</v>
       </c>
       <c r="L22">
-        <v>7.029308739614482</v>
+        <v>13.11442489755771</v>
       </c>
       <c r="M22">
-        <v>14.385783811477</v>
+        <v>12.02221614286019</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.917670278421626</v>
       </c>
       <c r="O22">
-        <v>13.81241721589528</v>
+        <v>14.53550312003943</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.09666402965032</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.60813494213677</v>
+        <v>15.40761803192054</v>
       </c>
       <c r="C23">
-        <v>9.854204814026978</v>
+        <v>10.86099246803555</v>
       </c>
       <c r="D23">
-        <v>6.582735711371865</v>
+        <v>7.300527836398127</v>
       </c>
       <c r="E23">
-        <v>10.60234907324774</v>
+        <v>10.84645867781329</v>
       </c>
       <c r="F23">
-        <v>32.35240374238134</v>
+        <v>29.12094477660436</v>
       </c>
       <c r="G23">
-        <v>40.89598214614742</v>
+        <v>37.99142862947572</v>
       </c>
       <c r="H23">
-        <v>1.718655067275765</v>
+        <v>1.713505368094514</v>
       </c>
       <c r="J23">
-        <v>12.7342568440664</v>
+        <v>10.73819403937779</v>
       </c>
       <c r="K23">
-        <v>19.55572564625736</v>
+        <v>16.96817283909248</v>
       </c>
       <c r="L23">
-        <v>6.970446414729945</v>
+        <v>13.26773095816326</v>
       </c>
       <c r="M23">
-        <v>14.13601374084105</v>
+        <v>12.06398883769006</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.874025878762781</v>
       </c>
       <c r="O23">
-        <v>13.60470050827247</v>
+        <v>14.30020457350568</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>13.87919651309265</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.47211993116517</v>
+        <v>14.31161814368626</v>
       </c>
       <c r="C24">
-        <v>9.122030357506883</v>
+        <v>10.16550254727805</v>
       </c>
       <c r="D24">
-        <v>6.172655092523908</v>
+        <v>6.694696386805791</v>
       </c>
       <c r="E24">
-        <v>10.01290495802047</v>
+        <v>10.21792930558764</v>
       </c>
       <c r="F24">
-        <v>31.23397440374692</v>
+        <v>28.94059922108548</v>
       </c>
       <c r="G24">
-        <v>39.36237694231778</v>
+        <v>35.44574034316425</v>
       </c>
       <c r="H24">
-        <v>2.142686556423694</v>
+        <v>2.086816225332208</v>
       </c>
       <c r="J24">
-        <v>12.57601170995301</v>
+        <v>11.80989840032357</v>
       </c>
       <c r="K24">
-        <v>19.33414110613016</v>
+        <v>17.35227604916963</v>
       </c>
       <c r="L24">
-        <v>6.743014031832415</v>
+        <v>13.72478829322977</v>
       </c>
       <c r="M24">
-        <v>13.15138551667583</v>
+        <v>12.08045437401881</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.694987578692505</v>
       </c>
       <c r="O24">
-        <v>12.79221378853559</v>
+        <v>13.34966102469257</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.03259454484818</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.14576674245502</v>
+        <v>13.06053821799296</v>
       </c>
       <c r="C25">
-        <v>8.267818039861579</v>
+        <v>9.140000640480777</v>
       </c>
       <c r="D25">
-        <v>5.700864716580393</v>
+        <v>6.163991736612152</v>
       </c>
       <c r="E25">
-        <v>9.340164304309393</v>
+        <v>9.557077001892486</v>
       </c>
       <c r="F25">
-        <v>30.04572370612638</v>
+        <v>28.09870900786285</v>
       </c>
       <c r="G25">
-        <v>37.74718319536127</v>
+        <v>34.27191590548061</v>
       </c>
       <c r="H25">
-        <v>2.61716725058455</v>
+        <v>2.521076588850141</v>
       </c>
       <c r="J25">
-        <v>12.42674428531272</v>
+        <v>11.79464056478009</v>
       </c>
       <c r="K25">
-        <v>19.1350451690572</v>
+        <v>17.40104439892636</v>
       </c>
       <c r="L25">
-        <v>6.488171188344332</v>
+        <v>13.94987248618625</v>
       </c>
       <c r="M25">
-        <v>12.00602555726409</v>
+        <v>11.85490472918826</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.471769738309112</v>
       </c>
       <c r="O25">
-        <v>11.86240619108357</v>
+        <v>12.19502678603317</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>12.07258425300216</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
